--- a/biology/Botanique/Charles_Henri_Marie_Flahault/Charles_Henri_Marie_Flahault.xlsx
+++ b/biology/Botanique/Charles_Henri_Marie_Flahault/Charles_Henri_Marie_Flahault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Henri Marie Flahault, né à Bailleul le 3 octobre 1852 et mort à Montpellier le 3 février 1935) est un botaniste français, pionnier dans les domaines de la phytogéographie, de la phytosociologie, de l’écologie forestière et de la vulgarisation scientifique. Il est un des premiers à utiliser des concepts tels que l’association végétale, la notion de station (botanique), de relevé floristique. Il est l’auteur de nombreux travaux scientifiques majeurs, l’initiateur de la cartographe botanique et il est le premier, en France, à établir des liens forts et durables entre botanistes et forestiers. Il est en outre le fondateur de l’Institut de botanique de Montpellier, ville où il réside de 1881 à sa mort. Il est aussi le créateur, avec Georges Fabre, de l’arboretum de l'Hort de Dieu au mont Aigoual, et l’artisan passionné du reboisement de ce massif.
 </t>
@@ -511,9 +523,11 @@
           <t>Repères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Flahault naît le 3 octobre 1852 à Bailleul (Nord), d’un père industriel (briqueterie) et d’une mère qui lui enseigne « l’histoire et les langues classiques, aussi bien que les éléments des sciences »[3]. Il fait ses études secondaires chez les jésuites d’Amiens. En 1870, il se porte volontaire pour l’armée, où on l’utilise comme agent de liaison dans l’armée de Faidherbe, alors dans le Nord. Il obtient son baccalauréat de lettres à Douai en 1872.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Flahault naît le 3 octobre 1852 à Bailleul (Nord), d’un père industriel (briqueterie) et d’une mère qui lui enseigne « l’histoire et les langues classiques, aussi bien que les éléments des sciences ». Il fait ses études secondaires chez les jésuites d’Amiens. En 1870, il se porte volontaire pour l’armée, où on l’utilise comme agent de liaison dans l’armée de Faidherbe, alors dans le Nord. Il obtient son baccalauréat de lettres à Douai en 1872.
 La même année, il devient jardinier au Jardin des plantes de Paris et se fait remarquer par Joseph Decaisne, alors titulaire de la chaire de culture, qui lui donne des leçons particulières. Il entre à la Sorbonne le 1er avril 1874, dans le laboratoire de Philippe Van Tieghem, bailleulois comme lui et maître de conférences à l’École normale supérieure, et s’oriente alors vers la biologie végétale. Il passe et obtient son baccalauréat es-sciences à Paris en 1874, puis en 1876 la licence es-sciences naturelles et obtient le doctorat en 1878. Il devient cette même année préparateur de botanique à la faculté des sciences de Paris, puis en 1880 répétiteur à l’École pratique des hautes études.
 En 1878, il est envoyé en mission en Norvège et en Suède par le ministère de l’Instruction publique, avec Gaston Bonnier, puis réalise une deuxième mission en Suède et en Laponie en 1879 et une mission en Angleterre en 1880.
 Il est nommé le 13 avril 1881 chargé de cours à la Faculté des sciences de Montpellier, puis titularisé le 1er mai 1881. Il devient professeur de botanique en 1883. En 1886 il voyage et herborise en Afrique du Nord (Oranie).
@@ -552,17 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le phytogéographe
-Dans l'histoire de la cartographie de la végétation française, Charles Flahault fait figure de précurseur en étant le premier à concrétiser l'idée d'une cartographie synthétique de la végétation. Avant lui, des cartes botaniques transcrivaient soit la répartition d'espèces ou de familles végétales (telle la Petite carte des régions botaniques de France de Lamarck et de Candolle qui dressent de 1805 à 1815 la première carte phytogéographique de France), soit, plus rarement, celle de grandes formations végétales. Il formule l'idée d'une carte de la végétation pour la première fois en 1894[4]. Il réalise à partir de 1897 la Carte botanique et forestière de la France au 1/200 000 sur un domaine immense - environ un dixième de la France[5]. Ce travail, resté inédit, servira de base et sera en partie à l'origine de la Carte du tapis végétal de la France au 1/1 000 000 réalisé en quatre feuillets et dix ans de travail par Henri Gaussen et publiée en 1936[6].
-L’algologue
-Flahault fut pendant douze ans l’élève et le collaborateur de l’algologue Jean-Baptiste Édouard Bornet, membre de l’Institut. Son ouvrage révisant les Nostocacées [7] fait encore aujourd'hui autorité. Il est par ailleurs l'auteur d'un travail sur les algues perforantes des coquilles des mollusques[8] qui a été pour lui l'occasion de faire une incursion en paléontologie et de faire progresser cette partie de la biologie.
-Le phytosociologue
-Dès 1901, Flahault pose les bases de la phytosociologie, ébauchant en particulier le concept d'association végétale, qui sera développé par la suite (1915) par son élève Josias Braun-Blanquet.
-Sylviculture et écologie forestière
-Le pédagogue
-Parmi ceux qui bénéficièrent des enseignements de Charles Flahault, on peut citer l’Écossais Robert Smith[9], le Suisse Jacques Huber et l’horticulteur français Joseph Marie Philippe Levêque de Vilmorin[réf. nécessaire].
-Le vulgarisateur
-Désireux de faire connaître la botanique au grand public et, en particulier, à la jeunesse, il fait publier chez Klincksieck à Paris, dès 1906, un des tout premiers ouvrages de poche, colorié, consacré à la flore des Alpes et des Pyrénées.
+          <t>Le phytogéographe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'histoire de la cartographie de la végétation française, Charles Flahault fait figure de précurseur en étant le premier à concrétiser l'idée d'une cartographie synthétique de la végétation. Avant lui, des cartes botaniques transcrivaient soit la répartition d'espèces ou de familles végétales (telle la Petite carte des régions botaniques de France de Lamarck et de Candolle qui dressent de 1805 à 1815 la première carte phytogéographique de France), soit, plus rarement, celle de grandes formations végétales. Il formule l'idée d'une carte de la végétation pour la première fois en 1894. Il réalise à partir de 1897 la Carte botanique et forestière de la France au 1/200 000 sur un domaine immense - environ un dixième de la France. Ce travail, resté inédit, servira de base et sera en partie à l'origine de la Carte du tapis végétal de la France au 1/1 000 000 réalisé en quatre feuillets et dix ans de travail par Henri Gaussen et publiée en 1936.
 </t>
         </is>
       </c>
@@ -588,14 +598,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Charles Flahault et Montpellier</t>
+          <t>Parcours scientifique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Charles Flahault fonde l’Institut de botanique de Montpellier, inauguré le 14 avril 1890, et qui sera visité par le président de la République, Sadi Carnot, le 24 mai suivant. Le bâtiment, devenu vétuste, est détruit en partie en 1946 et remplacé par les locaux actuels, construits sous l’impulsion de son gendre Louis Emberger. C'est devenu une propriété de l'université de Montpellier-II qui abrite encore des laboratoires de recherche dans le domaine de l'écologie et de la parasitologie, ainsi que le siège du Pôle universitaire européen de Montpellier. Il abrite une antenne du Conservatoire de Porquerolles et un herbier important conservant les récoltes des botanistes qui s'y sont succédé. Il a été le siège de l'association qui gère le réseau Tela Botanica pendant de nombreuses années, avant que celui-ci ne soit déplacé rue de Verdun.
-Lors d’un séjour d’études à la station de biologie marine de Roscoff en 1878, le biologiste et urbaniste écossais Patrick Geddes avait rencontré Flahault avec lequel il s’était lié d’amitié. Les frères Reclus, Élisée le géographe et Élie l’anthropologue, vont consacrer un livre élogieux à sa rénovation de l’Old Town d’Édimbourg, étroitement imbriquée à une pratique révolutionnaire de la botanique, où ils affirment que Geddes « se dit disciple fervent de Flahault, le professeur de Montpellier, qu’il déclare le plus grand botaniste du siècle »[10].
-Les deux hommes vont ensuite organiser régulièrement des échanges de leurs étudiants entre l’Écosse et Montpellier, où Patrick Geddes viendra s’installer définitivement en 1924, pour y fonder le Collège des Écossais, autre établissement phare de l’enseignement et de la recherche en botanique et en écologie marqué par Charles Flahault[11].
+          <t>L’algologue</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flahault fut pendant douze ans l’élève et le collaborateur de l’algologue Jean-Baptiste Édouard Bornet, membre de l’Institut. Son ouvrage révisant les Nostocacées  fait encore aujourd'hui autorité. Il est par ailleurs l'auteur d'un travail sur les algues perforantes des coquilles des mollusques qui a été pour lui l'occasion de faire une incursion en paléontologie et de faire progresser cette partie de la biologie.
 </t>
         </is>
       </c>
@@ -621,13 +635,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hommages</t>
+          <t>Parcours scientifique</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>L'avenue Charles-Flahault, à Montpellier, rappelle l'importance de son œuvre et le rôle de l'Institut qu'il créa dans le rayonnement de la botanique montpelliéraine.
-Une salle du Conservatoire botanique national de Bailleul, implanté dans la ville natale du botaniste, porte son nom, ainsi qu'une rue de la ville.</t>
+          <t>Le phytosociologue</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 1901, Flahault pose les bases de la phytosociologie, ébauchant en particulier le concept d'association végétale, qui sera développé par la suite (1915) par son élève Josias Braun-Blanquet.
+</t>
         </is>
       </c>
     </row>
@@ -652,10 +672,154 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Parcours scientifique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le pédagogue</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi ceux qui bénéficièrent des enseignements de Charles Flahault, on peut citer l’Écossais Robert Smith, le Suisse Jacques Huber et l’horticulteur français Joseph Marie Philippe Levêque de Vilmorin[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charles_Henri_Marie_Flahault</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Henri_Marie_Flahault</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Parcours scientifique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le vulgarisateur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Désireux de faire connaître la botanique au grand public et, en particulier, à la jeunesse, il fait publier chez Klincksieck à Paris, dès 1906, un des tout premiers ouvrages de poche, colorié, consacré à la flore des Alpes et des Pyrénées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charles_Henri_Marie_Flahault</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Henri_Marie_Flahault</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Charles Flahault et Montpellier</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Flahault fonde l’Institut de botanique de Montpellier, inauguré le 14 avril 1890, et qui sera visité par le président de la République, Sadi Carnot, le 24 mai suivant. Le bâtiment, devenu vétuste, est détruit en partie en 1946 et remplacé par les locaux actuels, construits sous l’impulsion de son gendre Louis Emberger. C'est devenu une propriété de l'université de Montpellier-II qui abrite encore des laboratoires de recherche dans le domaine de l'écologie et de la parasitologie, ainsi que le siège du Pôle universitaire européen de Montpellier. Il abrite une antenne du Conservatoire de Porquerolles et un herbier important conservant les récoltes des botanistes qui s'y sont succédé. Il a été le siège de l'association qui gère le réseau Tela Botanica pendant de nombreuses années, avant que celui-ci ne soit déplacé rue de Verdun.
+Lors d’un séjour d’études à la station de biologie marine de Roscoff en 1878, le biologiste et urbaniste écossais Patrick Geddes avait rencontré Flahault avec lequel il s’était lié d’amitié. Les frères Reclus, Élisée le géographe et Élie l’anthropologue, vont consacrer un livre élogieux à sa rénovation de l’Old Town d’Édimbourg, étroitement imbriquée à une pratique révolutionnaire de la botanique, où ils affirment que Geddes « se dit disciple fervent de Flahault, le professeur de Montpellier, qu’il déclare le plus grand botaniste du siècle ».
+Les deux hommes vont ensuite organiser régulièrement des échanges de leurs étudiants entre l’Écosse et Montpellier, où Patrick Geddes viendra s’installer définitivement en 1924, pour y fonder le Collège des Écossais, autre établissement phare de l’enseignement et de la recherche en botanique et en écologie marqué par Charles Flahault.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Charles_Henri_Marie_Flahault</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Henri_Marie_Flahault</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'avenue Charles-Flahault, à Montpellier, rappelle l'importance de son œuvre et le rôle de l'Institut qu'il créa dans le rayonnement de la botanique montpelliéraine.
+Une salle du Conservatoire botanique national de Bailleul, implanté dans la ville natale du botaniste, porte son nom, ainsi qu'une rue de la ville.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Charles_Henri_Marie_Flahault</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Henri_Marie_Flahault</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Recherches sur l’accroissement terminal de la racine chez les phanérogames (thèse de doctorat), G. Masson, Paris, 1878 (198 pp., 8 pl.)
 Observations sur les modifications des végétaux suivant les conditions physiques du milieu, An. Sc. Nat. Bot. 6, VII, p. 93-125, 1878 (avec Gaston Bonnier).
@@ -691,7 +855,7 @@
 Les Causses du Midi de la France, Bulletin de la Société languedocienne de Géographie, III-3, IV, V-1, 1932-1934.
 La Distribution géographique des végétaux dans la région méditerranéenne française, Encyclopédie biologique Lechevalier, 1937.
 En 2010, l'association Tela Botanica avec l'association Présence de Charles Flahault, les Archives départementales de l’Hérault, l’université Montpellier 2 (service des collections et services communs de la documentation) et de l’université Montpellier 1 (faculté de pharmacie), ont lancé une initiative visant avec l'aide du public susceptible de posséder des écrits originaux de Charles Flahault à rassembler et numériser, de manière exhaustive tous les documents du célèbre botaniste     
-[12].
+.
 </t>
         </is>
       </c>
